--- a/datasets/cleaned.xlsx
+++ b/datasets/cleaned.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Polska" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Polska2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
   </authors>
@@ -32,31 +33,11 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Houshold debt is defined as all liabilities of households (including non-profit institutions serving households) that require payments of interest or principal by households to the creditors at a fixed dates in the future. Debt is calculated as the sum of the following liability categories: loans (primarily mortgage loans and consumer credit) and other accounts payable. The indicator is measured as a percentage of net household disposable income.</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>17</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="D1" authorId="0">
       <text>
@@ -65,32 +46,12 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Disposable income is closest to the concept of income as generally understood in economics. Household disposable income is income available to households such as wages and salaries, income from self-employment and unincorporated enterprises, income from pensions and other social benefits, and income from financial investments (less any payments of tax, social insurance contributions and interest on financial liabilities). ‘Gross’ means that depreciation costs are not subtracted. For gross household disposable income per capita, growth rates (percentage change from previous period) are presented; these are ‘real’ growth rates adjusted to remove the effects of price changes. Information is also presented for gross household disposable income including social transfers in kind, such as health or education provided for free or at reduced prices by governments and not-for-profit organisations. This indicator is in US dollars per capita at current prices and PPPs. In the System of National Accounts, household disposable income including social transfers in kind is referred to as ‘adjusted household disposable income’. All OECD countries compile their data according to the 2008 System of National Accounts (SNA 2008).
 </t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>-5</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>2</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="E1" authorId="0">
       <text>
@@ -99,32 +60,12 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Household spending is the amount of final consumption expenditure made by resident households to meet their everyday needs, such as food, clothing, housing (rent), energy, transport, durable goods (notably cars), health costs, leisure, and miscellaneous services. It is typically around 60% of gross domestic product (GDP) and is therefore an essential variable for economic analysis of demand. Household spending including government transfers (referred to as "actual individual consumption" in national accounts) is equal to households' consumption expenditure plus those expenditures of general government and non-profit institutions serving households (NPISHs) that directly benefit households, such as health care and education. "Housing, water, electricity, gas, and other fuels", one out of the twelve categories distinguished, consist of both actual rentals (for tenants) and imputed rentals (for owner-occupied housing), housing maintenance, as well as costs for water, electricity, gas. Total household spending is measured in million USD (in current prices and Private consumption PPPs), as a percentage of GDP, and in annual growth rates. Household spending including government transfers is measured as a percentage of GDP. Spending in housing is presented as a percentage of household disposable income. All OECD countries compile their data according to the 2008 System of National Accounts (SNA 2008).
 </t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47</xdr:colOff>
-                <xdr:row>88</xdr:row>
-                <xdr:rowOff>2</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="G1" authorId="0">
       <text>
@@ -133,39 +74,84 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Rezerwy, które powinny zapewnić pełne pokrycie wszelkich bieżących i przyszłych zobowiązań, jakie mogą wyniknąć z zawartych umów ubezpieczenia. Na rezerwy techniczno-ubezpieczeniowe składają się: rezerwa składek, rezerwa na ryzyka niewygasłe, rezerwa na niewypłacone odszkodowania i świadczenia, rezerwa na wyrównanie szkodowości (ryzyka), rezerwa w dziale ubezpieczeń na życie, rezerwa gdy ryzyko lokaty ponosi ubezpieczający, rezerwa na premie i rabaty dla ubezpieczonych, pozostałe rezerwy techniczno-ubezpieczeniowe.
 </t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>5</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>11</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Houshold debt is defined as all liabilities of households (including non-profit institutions serving households) that require payments of interest or principal by households to the creditors at a fixed dates in the future. Debt is calculated as the sum of the following liability categories: loans (primarily mortgage loans and consumer credit) and other accounts payable. The indicator is measured as a percentage of net household disposable income.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Disposable income is closest to the concept of income as generally understood in economics. Household disposable income is income available to households such as wages and salaries, income from self-employment and unincorporated enterprises, income from pensions and other social benefits, and income from financial investments (less any payments of tax, social insurance contributions and interest on financial liabilities). ‘Gross’ means that depreciation costs are not subtracted. For gross household disposable income per capita, growth rates (percentage change from previous period) are presented; these are ‘real’ growth rates adjusted to remove the effects of price changes. Information is also presented for gross household disposable income including social transfers in kind, such as health or education provided for free or at reduced prices by governments and not-for-profit organisations. This indicator is in US dollars per capita at current prices and PPPs. In the System of National Accounts, household disposable income including social transfers in kind is referred to as ‘adjusted household disposable income’. All OECD countries compile their data according to the 2008 System of National Accounts (SNA 2008).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Household spending is the amount of final consumption expenditure made by resident households to meet their everyday needs, such as food, clothing, housing (rent), energy, transport, durable goods (notably cars), health costs, leisure, and miscellaneous services. It is typically around 60% of gross domestic product (GDP) and is therefore an essential variable for economic analysis of demand. Household spending including government transfers (referred to as "actual individual consumption" in national accounts) is equal to households' consumption expenditure plus those expenditures of general government and non-profit institutions serving households (NPISHs) that directly benefit households, such as health care and education. "Housing, water, electricity, gas, and other fuels", one out of the twelve categories distinguished, consist of both actual rentals (for tenants) and imputed rentals (for owner-occupied housing), housing maintenance, as well as costs for water, electricity, gas. Total household spending is measured in million USD (in current prices and Private consumption PPPs), as a percentage of GDP, and in annual growth rates. Household spending including government transfers is measured as a percentage of GDP. Spending in housing is presented as a percentage of household disposable income. All OECD countries compile their data according to the 2008 System of National Accounts (SNA 2008).
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Rezerwy, które powinny zapewnić pełne pokrycie wszelkich bieżących i przyszłych zobowiązań, jakie mogą wyniknąć z zawartych umów ubezpieczenia. Na rezerwy techniczno-ubezpieczeniowe składają się: rezerwa składek, rezerwa na ryzyka niewygasłe, rezerwa na niewypłacone odszkodowania i świadczenia, rezerwa na wyrównanie szkodowości (ryzyka), rezerwa w dziale ubezpieczeń na życie, rezerwa gdy ryzyko lokaty ponosi ubezpieczający, rezerwa na premie i rabaty dla ubezpieczonych, pozostałe rezerwy techniczno-ubezpieczeniowe.
+</t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t xml:space="preserve">Rok</t>
   </si>
@@ -202,6 +188,9 @@
   <si>
     <t xml:space="preserve">Średnia stopa bezrobocia</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cena: olej jadalny rafinowany rzepakowy konfekcjonowany - za 1l</t>
+  </si>
 </sst>
 </file>
 
@@ -216,6 +205,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -237,6 +227,7 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,20 +321,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="N1:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.11"/>
   </cols>
   <sheetData>
@@ -384,6 +375,10 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
@@ -422,6 +417,9 @@
       <c r="L2" s="0" t="n">
         <v>11.9916666666667</v>
       </c>
+      <c r="M2" s="0" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
@@ -460,6 +458,9 @@
       <c r="L3" s="0" t="n">
         <v>14.0083333333333</v>
       </c>
+      <c r="M3" s="0" t="n">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
@@ -498,6 +499,9 @@
       <c r="L4" s="0" t="n">
         <v>16.225</v>
       </c>
+      <c r="M4" s="0" t="n">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
@@ -533,6 +537,9 @@
       <c r="L5" s="0" t="n">
         <v>19.9166666666667</v>
       </c>
+      <c r="M5" s="0" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
@@ -571,6 +578,9 @@
       <c r="L6" s="0" t="n">
         <v>19.5083333333333</v>
       </c>
+      <c r="M6" s="0" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
@@ -609,6 +619,9 @@
       <c r="L7" s="0" t="n">
         <v>18.1916666666667</v>
       </c>
+      <c r="M7" s="0" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
@@ -647,6 +660,9 @@
       <c r="L8" s="0" t="n">
         <v>16.1916666666667</v>
       </c>
+      <c r="M8" s="0" t="n">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
@@ -685,6 +701,9 @@
       <c r="L9" s="0" t="n">
         <v>12.6916666666667</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
@@ -723,6 +742,9 @@
       <c r="L10" s="0" t="n">
         <v>9.81666666666667</v>
       </c>
+      <c r="M10" s="0" t="n">
+        <v>3.63</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
@@ -761,6 +783,9 @@
       <c r="L11" s="0" t="n">
         <v>10.9666666666667</v>
       </c>
+      <c r="M11" s="0" t="n">
+        <v>4.54</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
@@ -799,6 +824,9 @@
       <c r="L12" s="0" t="n">
         <v>12.1083333333333</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
@@ -837,6 +865,9 @@
       <c r="L13" s="0" t="n">
         <v>12.3916666666667</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
@@ -875,6 +906,9 @@
       <c r="L14" s="0" t="n">
         <v>12.8</v>
       </c>
+      <c r="M14" s="0" t="n">
+        <v>5.29</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
@@ -913,6 +947,9 @@
       <c r="L15" s="0" t="n">
         <v>13.5333333333333</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
@@ -951,6 +988,9 @@
       <c r="L16" s="0" t="n">
         <v>12.325</v>
       </c>
+      <c r="M16" s="0" t="n">
+        <v>5.21</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
@@ -989,6 +1029,9 @@
       <c r="L17" s="0" t="n">
         <v>10.4833333333333</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>5.24</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
@@ -1027,6 +1070,9 @@
       <c r="L18" s="0" t="n">
         <v>8.94166666666667</v>
       </c>
+      <c r="M18" s="0" t="n">
+        <v>5.46</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
@@ -1065,6 +1111,9 @@
       <c r="L19" s="0" t="n">
         <v>7.275</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>4.84</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
@@ -1103,6 +1152,9 @@
       <c r="L20" s="0" t="n">
         <v>6.075</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>4.97</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
@@ -1141,6 +1193,9 @@
       <c r="L21" s="0" t="n">
         <v>5.43333333333333</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
@@ -1179,43 +1234,8 @@
       <c r="L22" s="0" t="n">
         <v>5.925</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>6.85103978794434</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>58.7989</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>3.69186887687891</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>-2.78642836233273</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>51.36442</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>2.63952</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>37903.9638489495</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>62009.64</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0.575333333333333</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>4891.5</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>6.3</v>
+      <c r="M22" s="0" t="n">
+        <v>4.43</v>
       </c>
     </row>
   </sheetData>
@@ -1228,4 +1248,969 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="1" sqref="N1:O22 C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>9.94649898753064</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>10.72194</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3.55215758686286</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>5.54492254286923</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>57.2561</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2.920997</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>5176.92570048532</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>20480.88</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>16.4444444444444</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2132.5</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>11.9916666666667</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>10.1531767342856</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11.82697</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2.73021207955509</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2.89758716100641</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>60.30187</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4.445247</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5390.97288508007</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>23085.72</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>20.4166666666667</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>2281.25</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>14.0083333333333</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>11.6555540587117</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>17.74195</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3.90377990426677</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2.02003470932063</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>62.12636</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>5.267816</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>5876.96438193137</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>24742.2</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>16.1818181818182</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>2510</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>16.225</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>8.27014177774005</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.058289054701307</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3.87143580127371</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>57.49397</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>5.963031</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>6643.19265424024</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>25598.52</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>8.59375</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>2403.5</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>19.9166666666667</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>7.30236197945154</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>19.7753</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.675173624585802</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.38183630879458</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>42.79832</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>4.755579</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>9196.61653632118</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>26417.64</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>6.1375</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2238</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>19.5083333333333</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2.49509350720971</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>21.56775</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-0.27308503960564</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4.33568764714461</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>39.84217</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>5.183466</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>9712.16564533556</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>27474.84</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>6.20833333333333</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2388.75</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>18.1916666666667</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>1.80693641073508</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>25.08294</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1.07928028407816</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.81610021699482</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>37.30743</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>5.333644</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>10844.8536728785</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>28563.48</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>2439.25</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>16.1916666666667</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>2.05194142618481</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>31.14308</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5.09590969001296</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4.7286130447744</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>36.61013</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>5.913386</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>12408.1758629721</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>29726.76</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2545.25</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>12.6916666666667</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1.73916259396436</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>39.40302</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4.47016564181827</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>5.64722832241126</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>34.88101</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>6.020751</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>14380.1648528793</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>32292.36</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>4.6875</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2816</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>9.81666666666667</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.026235484182765</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>51.51384</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>4.32522661791928</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>6.67801136833646</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>45.87484</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>6.894511</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>13667.5385298438</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>35326.56</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>5.60416666666667</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3316.25</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>10.9666666666667</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>2.6370113641071</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>52.7719</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>6.06276701083612</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>3.44414657922722</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>44.49837</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>5.944792</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>15343.5348128213</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>37235.52</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3.9375</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3891.5</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>12.1083333333333</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>2.77843649155323</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>57.0017</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2.72347752729851</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2.64325436303492</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>44.07663</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>5.914363</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>17412.6693915511</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>38699.76</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>4360.25</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>12.3916666666667</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>-0.36077584045203</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>60.19951</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.358070223909829</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2.83778510872264</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>46.22256</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>5.192531</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>18698.2742159369</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>40794.24</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3858.25</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>-0.361169953155583</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>58.29223</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.694669206075725</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.44658890081506</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>44.68791</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>5.180855</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>20735.9328812819</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>42260.04</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>4.5625</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3996.25</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>13.5333333333333</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>0.633309716158502</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>59.99296</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1.44360455557631</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.244622743653141</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>44.77989</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>4.976087</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>22615.3795876545</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>43800.72</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>3.27083333333333</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>4025.25</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>12.325</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>0.459648551903677</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>61.517</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3.17769328542017</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2.4823731156513</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>45.45393</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>4.710074</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>24436.1382366146</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>45401.52</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>2.0625</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>4033.5</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>10.4833333333333</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>0.127408913512444</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>63.21331</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3.96587023214518</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3.72990966970652</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>46.5856</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>4.350129</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>26339.4156360362</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>46797.36</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>3969.5</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>8.94166666666667</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>1.72026118385713</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>63.17697</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>5.0993405715505</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3.95661054217867</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>47.17662</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>3.99559</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>29341.3206625463</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>48566.52</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>4054</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>0.384536575370535</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>61.17241</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3.79634468007845</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4.70806616455804</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>47.16817</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3.917741</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>30398.1877800507</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>51258.12</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>4170</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>-0.702362299381626</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>62.30821</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2.91590445274151</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4.51230799638827</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>48.90567</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3.283089</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>32162.8487553664</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>55020.36</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>4237.5</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>0.703333908149411</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>61.15486</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>5.53450136928785</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3.87910062784095</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>50.73879</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3.026496</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>33230.2355959287</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>59018.04</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>4461.25</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>6.85103978794434</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>58.7989</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3.69186887687891</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>-2.78642836233273</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>51.36442</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2.63952</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>37903.9638489495</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>62009.64</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.575333333333333</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>4891.5</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>4.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>